--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:44:08+00:00</t>
+    <t>2025-10-28T09:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="95">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,6 +293,16 @@
   </si>
   <si>
     <t>Date de mise en opposition de la carte. Cette opposition implique la révocation des certifications embarquées dans la carte.</t>
+  </si>
+  <si>
+    <t>CarteProfessionnel.certificat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Certificat
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Certificat.</t>
   </si>
 </sst>
 </file>
@@ -597,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -616,7 +626,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="8.3359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1351,6 +1361,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -295,14 +295,14 @@
     <t>Date de mise en opposition de la carte. Cette opposition implique la révocation des certifications embarquées dans la carte.</t>
   </si>
   <si>
-    <t>CarteProfessionnel.certificat</t>
+    <t>CarteProfessionnel.Certificat</t>
   </si>
   <si>
     <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Certificat
 </t>
   </si>
   <si>
-    <t>Lien vers la classe Certificat.</t>
+    <t>Lien vers la classe Certificat</t>
   </si>
 </sst>
 </file>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -303,6 +303,16 @@
   </si>
   <si>
     <t>Lien vers la classe Certificat</t>
+  </si>
+  <si>
+    <t>CarteProfessionnel.ExerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel</t>
   </si>
 </sst>
 </file>
@@ -607,7 +617,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -616,8 +626,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.37109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.37109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -626,7 +636,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.08203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.0625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -647,7 +657,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.37109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1461,6 +1471,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -295,6 +295,16 @@
     <t>Date de mise en opposition de la carte. Cette opposition implique la révocation des certifications embarquées dans la carte.</t>
   </si>
   <si>
+    <t>CarteProfessionnel.ExerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel</t>
+  </si>
+  <si>
     <t>CarteProfessionnel.Certificat</t>
   </si>
   <si>
@@ -303,16 +313,6 @@
   </si>
   <si>
     <t>Lien vers la classe Certificat</t>
-  </si>
-  <si>
-    <t>CarteProfessionnel.ExerciceProfessionnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel
-</t>
-  </si>
-  <si>
-    <t>Lien vers la classe ExerciceProfessionnel</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1387,7 @@
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>71</v>
@@ -1462,7 +1462,7 @@
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>71</v>
@@ -1487,7 +1487,7 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>71</v>
@@ -1562,7 +1562,7 @@
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>71</v>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
+++ b/ML/ig/StructureDefinition-CarteProfessionnel.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
